--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABCDF/15/seed5/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABCDF/15/seed5/result_data_KNN.xlsx
@@ -482,7 +482,7 @@
         <v>-21.67</v>
       </c>
       <c r="B3" t="n">
-        <v>5.26</v>
+        <v>6.669</v>
       </c>
       <c r="C3" t="n">
         <v>-9.76</v>
@@ -491,7 +491,7 @@
         <v>-6.85</v>
       </c>
       <c r="E3" t="n">
-        <v>12.328</v>
+        <v>12.457</v>
       </c>
     </row>
     <row r="4">
@@ -536,7 +536,7 @@
         <v>7.87</v>
       </c>
       <c r="C6" t="n">
-        <v>-12.378</v>
+        <v>-12.974</v>
       </c>
       <c r="D6" t="n">
         <v>-8.59</v>
@@ -553,7 +553,7 @@
         <v>6.56</v>
       </c>
       <c r="C7" t="n">
-        <v>-14.104</v>
+        <v>-13.057</v>
       </c>
       <c r="D7" t="n">
         <v>-9.31</v>
@@ -567,16 +567,16 @@
         <v>-21.48</v>
       </c>
       <c r="B8" t="n">
-        <v>5.518</v>
+        <v>5.991999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>-11.984</v>
+        <v>-12.194</v>
       </c>
       <c r="D8" t="n">
         <v>-7.09</v>
       </c>
       <c r="E8" t="n">
-        <v>13.516</v>
+        <v>12.711</v>
       </c>
     </row>
     <row r="9">
@@ -624,7 +624,7 @@
         <v>-13.87</v>
       </c>
       <c r="D11" t="n">
-        <v>-8.224</v>
+        <v>-8.334</v>
       </c>
       <c r="E11" t="n">
         <v>13.91</v>
@@ -632,10 +632,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.878</v>
+        <v>-21.482</v>
       </c>
       <c r="B12" t="n">
-        <v>6.9</v>
+        <v>6.806999999999999</v>
       </c>
       <c r="C12" t="n">
         <v>-15.79</v>
@@ -669,13 +669,13 @@
         <v>-20.07</v>
       </c>
       <c r="B14" t="n">
-        <v>7.986000000000002</v>
+        <v>6.973000000000001</v>
       </c>
       <c r="C14" t="n">
         <v>-11.89</v>
       </c>
       <c r="D14" t="n">
-        <v>-8.218</v>
+        <v>-7.764</v>
       </c>
       <c r="E14" t="n">
         <v>12.97</v>
@@ -757,13 +757,13 @@
         <v>5.44</v>
       </c>
       <c r="C19" t="n">
-        <v>-12.654</v>
+        <v>-12.912</v>
       </c>
       <c r="D19" t="n">
-        <v>-7.244</v>
+        <v>-7.928</v>
       </c>
       <c r="E19" t="n">
-        <v>13.864</v>
+        <v>12.806</v>
       </c>
     </row>
     <row r="20">
@@ -791,10 +791,10 @@
         <v>7.49</v>
       </c>
       <c r="C21" t="n">
-        <v>-11.974</v>
+        <v>-12.657</v>
       </c>
       <c r="D21" t="n">
-        <v>-8.380000000000001</v>
+        <v>-7.528</v>
       </c>
       <c r="E21" t="n">
         <v>13.76</v>
@@ -805,7 +805,7 @@
         <v>-20.95</v>
       </c>
       <c r="B22" t="n">
-        <v>6.242</v>
+        <v>6.74</v>
       </c>
       <c r="C22" t="n">
         <v>-10.65</v>
@@ -842,7 +842,7 @@
         <v>9.130000000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>-12.21</v>
+        <v>-12.512</v>
       </c>
       <c r="D24" t="n">
         <v>-9.24</v>
